--- a/biology/Médecine/Alexion_Pharmaceuticals/Alexion_Pharmaceuticals.xlsx
+++ b/biology/Médecine/Alexion_Pharmaceuticals/Alexion_Pharmaceuticals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Alexion Pharmaceuticals est une entreprise de biotechnologie américaine spécialisée dans la recherche et le développement de produits thérapeutiques destinés au traitement des maladies hématologiques et cardiovasculaires, des maladies auto-immunes et des cancers et produisant notamment l'Éculizumab, un anticorps. Elle est basée à Cheshire, au Connecticut.
@@ -513,11 +525,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En mai 2015, Alexion annonce l'acquisition pour 8,4 milliards de dollars de Synageva BioPharma, une entreprise de biotechnologie américaine elle aussi spécialisée dans les maladies rares[4].
-En septembre 2018, Alexion annonce l'acquisition de Syntimmune, une  entreprise de biotechnologie américaine spécialisée dans un trouble du sang rare, pour 1,2 milliard de dollars[5].
-En décembre 2020, AstraZeneca annonce l'acquisition d'Alexion, pour 39 milliards de dollars[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mai 2015, Alexion annonce l'acquisition pour 8,4 milliards de dollars de Synageva BioPharma, une entreprise de biotechnologie américaine elle aussi spécialisée dans les maladies rares.
+En septembre 2018, Alexion annonce l'acquisition de Syntimmune, une  entreprise de biotechnologie américaine spécialisée dans un trouble du sang rare, pour 1,2 milliard de dollars.
+En décembre 2020, AstraZeneca annonce l'acquisition d'Alexion, pour 39 milliards de dollars.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Actionnaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des principaux actionnaires au 26 octobre 2019[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des principaux actionnaires au 26 octobre 2019.
 </t>
         </is>
       </c>
@@ -579,13 +595,99 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activités de lobbying
-Aux États-Unis
-Selon le Center for Responsive Politics, les dépenses de lobbying d'Alexion aux États-Unis s'élèvent en 2017 à 1 230 000 dollars[8].
-Auprès des institutions de l'Union européenne
-Alexion est inscrit depuis 2013 au registre de transparence des représentants d'intérêts auprès de la Commission européenne. Elle déclare en 2017 pour cette activité des dépenses annuelles d'un montant compris entre 200 000 et 300 000 euros[9].
-En France
-Pour l'année 2017, Alexion France et Alexion services Europe déclarent à la Haute Autorité pour la transparence de la vie publique exercer des activités de lobbying en France pour un montant global qui n'excède pas 400 000 euros[10],[11].
+          <t>Activités de lobbying</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Aux États-Unis</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le Center for Responsive Politics, les dépenses de lobbying d'Alexion aux États-Unis s'élèvent en 2017 à 1 230 000 dollars.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alexion_Pharmaceuticals</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexion_Pharmaceuticals</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Communication</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Activités de lobbying</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Auprès des institutions de l'Union européenne</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexion est inscrit depuis 2013 au registre de transparence des représentants d'intérêts auprès de la Commission européenne. Elle déclare en 2017 pour cette activité des dépenses annuelles d'un montant compris entre 200 000 et 300 000 euros.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alexion_Pharmaceuticals</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexion_Pharmaceuticals</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Communication</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Activités de lobbying</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour l'année 2017, Alexion France et Alexion services Europe déclarent à la Haute Autorité pour la transparence de la vie publique exercer des activités de lobbying en France pour un montant global qui n'excède pas 400 000 euros,.
 </t>
         </is>
       </c>
